--- a/templates/export/events2.xlsx
+++ b/templates/export/events2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nspiraappcbd/Documents/GitHub/traccar/templates/export/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACE5492-A532-4842-B3E3-32431CC8126E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F919403-609E-D941-9B8A-8D872ED6AFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>jx:each(items="summaries", var="summary", lastCell="J7")</t>
+          <t>jx:each(items="events", var="event", lastCell="J7")</t>
         </r>
       </text>
     </comment>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>Device</t>
-  </si>
-  <si>
-    <t>${summary.deviceName}</t>
   </si>
   <si>
     <t>Time</t>
@@ -101,28 +98,31 @@
     <t>Group Name</t>
   </si>
   <si>
-    <t>${summary.groupName}</t>
+    <t>Event</t>
   </si>
   <si>
-    <t>${dateTool.format("YYYY-MM-dd HH:mm:ss", summary.eventTime, locale, timezone)}</t>
+    <t>${dateTool.format("YYYY-MM-dd HH:mm:ss", event.eventTime, locale, timezone)}</t>
   </si>
   <si>
-    <t>${summary.type}</t>
+    <t>${event.type}</t>
   </si>
   <si>
-    <t>${positions[summary.positionId] != null ? util.hyperlink("".format("https://www.openstreetmap.org/?mlat=%1$f&amp;mlon=%2$f#map=16/%1$f/%2$f", positions[summary.positionId].latitude, positions[summary.positionId].longitude), positions[summary.positionId].getAddress() == null ? "".format("%1$f°, %2$f°", positions[summary.positionId].latitude, positions[summary.positionId].longitude) : positions[summary.positionId].address) : ""}</t>
+    <t>${event.geofenceName}</t>
   </si>
   <si>
-    <t>${summary.Attributes.toString().replaceAll(",", " ").replaceAll(bracketsRegex, "")}</t>
+    <t>${event.maintenanceName}</t>
   </si>
   <si>
-    <t>${summary.maintenanceName}</t>
+    <t>${positions[event.positionId] != null ? util.hyperlink("".format("https://www.openstreetmap.org/?mlat=%1$f&amp;mlon=%2$f#map=16/%1$f/%2$f", positions[event.positionId].latitude, positions[event.positionId].longitude), positions[event.positionId].getAddress() == null ? "".format("%1$f°, %2$f°", positions[event.positionId].latitude, positions[event.positionId].longitude) : positions[event.positionId].address) : ""}</t>
   </si>
   <si>
-    <t>${summary.geofenceName}</t>
+    <t>${event.Attributes.toString().replaceAll(",", " ").replaceAll(bracketsRegex, "")}</t>
   </si>
   <si>
-    <t>Event</t>
+    <t>${event.deviceName}</t>
+  </si>
+  <si>
+    <t>${event.groupName}</t>
   </si>
 </sst>
 </file>
@@ -1032,6 +1032,114 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7845F0D-FD02-0A80-C0AD-95BDBF3BF453}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="16446500" cy="9575800"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03BD3491-4DF1-3B62-5FDB-EC3B5C1A7B26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="16446500" cy="9575800"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1361,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C2" s="6"/>
       <c r="E2" s="5"/>
@@ -1395,54 +1503,54 @@
     </row>
     <row r="6" spans="1:8" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="C6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="D6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="E6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="F6" s="14" t="s">
         <v>9</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="13" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="D7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>4</v>
-      </c>
       <c r="H7" s="15" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
